--- a/ggirl/Gossip girl S_list.xlsx
+++ b/ggirl/Gossip girl S_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sys4u-my.sharepoint.com/personal/inog74_plateer_com/Documents/git/inogift/inogift.github.io/md/Ggirl/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sys4u-my.sharepoint.com/personal/inog74_plateer_com/Documents/git/inogift/inogift.github.io/ggirl/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="194" documentId="11_AD4D066CA252ABDACC1048DF89A479F349B8DF51" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5A80EE5F-95F2-449B-A42D-5780F859AA6D}"/>
   <bookViews>
-    <workbookView xWindow="-20580" yWindow="795" windowWidth="20280" windowHeight="20295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31140" yWindow="465" windowWidth="24390" windowHeight="15735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3064,14 +3064,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3358,62 +3358,62 @@
   <dimension ref="B2:G136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="7" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="9" style="7"/>
     <col min="3" max="3" width="33" customWidth="1"/>
-    <col min="4" max="4" width="55.140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="55.125" style="7" customWidth="1"/>
     <col min="5" max="5" width="67.5" style="9" customWidth="1"/>
-    <col min="6" max="6" width="2.2109375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="2.25" style="7" customWidth="1"/>
     <col min="7" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D2" s="7" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="2:7" ht="22.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-    </row>
-    <row r="5" spans="2:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" spans="2:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+    </row>
+    <row r="7" spans="2:7" ht="18" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
         <v>271</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="10" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>270</v>
       </c>
@@ -3427,7 +3427,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="158.15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:7" ht="181.5" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
         <v>270</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
         <v>270</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:7" ht="66" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
         <v>270</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="35.15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="s">
         <v>270</v>
       </c>
@@ -3483,7 +3483,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B13" s="7" t="s">
         <v>270</v>
       </c>
@@ -3497,7 +3497,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="35.15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
         <v>270</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="35.15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B15" s="7" t="s">
         <v>270</v>
       </c>
@@ -3525,7 +3525,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="35.15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B16" s="7" t="s">
         <v>270</v>
       </c>
@@ -3539,7 +3539,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B17" s="7" t="s">
         <v>270</v>
       </c>
@@ -3553,7 +3553,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="140.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:7" ht="165" x14ac:dyDescent="0.3">
       <c r="B18" s="7" t="s">
         <v>270</v>
       </c>
@@ -3570,7 +3570,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B19" s="7" t="s">
         <v>270</v>
       </c>
@@ -3587,7 +3587,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="158.15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:7" ht="181.5" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
         <v>270</v>
       </c>
@@ -3601,7 +3601,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="351.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:7" ht="396" x14ac:dyDescent="0.3">
       <c r="B21" s="7" t="s">
         <v>270</v>
       </c>
@@ -3615,7 +3615,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="228.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:7" ht="247.5" x14ac:dyDescent="0.3">
       <c r="B22" s="7" t="s">
         <v>270</v>
       </c>
@@ -3629,7 +3629,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B23" s="7" t="s">
         <v>270</v>
       </c>
@@ -3643,7 +3643,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="35.15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
         <v>270</v>
       </c>
@@ -3657,7 +3657,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B25" s="7" t="s">
         <v>270</v>
       </c>
@@ -3671,7 +3671,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:7" ht="18" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>271</v>
       </c>
@@ -3679,7 +3679,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="175.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:7" ht="198" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
         <v>270</v>
       </c>
@@ -3693,7 +3693,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="35.15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B29" s="7" t="s">
         <v>270</v>
       </c>
@@ -3707,7 +3707,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="30" spans="2:7" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B30" s="7" t="s">
         <v>270</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="31" spans="2:7" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:7" ht="66" x14ac:dyDescent="0.3">
       <c r="B31" s="7" t="s">
         <v>270</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B32" s="7" t="s">
         <v>270</v>
       </c>
@@ -3749,7 +3749,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="33" spans="2:5" ht="35.15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="2:5" ht="33" x14ac:dyDescent="0.3">
       <c r="B33" s="7" t="s">
         <v>270</v>
       </c>
@@ -3763,7 +3763,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="34" spans="2:5" ht="35.15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B34" s="7" t="s">
         <v>270</v>
       </c>
@@ -3777,7 +3777,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="35" spans="2:5" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B35" s="7" t="s">
         <v>270</v>
       </c>
@@ -3791,7 +3791,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="36" spans="2:5" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B36" s="7" t="s">
         <v>270</v>
       </c>
@@ -3805,7 +3805,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="37" spans="2:5" ht="35.15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
         <v>270</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="38" spans="2:5" ht="35.15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
         <v>270</v>
       </c>
@@ -3833,7 +3833,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="2:5" ht="33" x14ac:dyDescent="0.3">
       <c r="B39" s="7" t="s">
         <v>270</v>
       </c>
@@ -3847,7 +3847,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="40" spans="2:5" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B40" s="7" t="s">
         <v>270</v>
       </c>
@@ -3861,7 +3861,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="41" spans="2:5" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B41" s="7" t="s">
         <v>270</v>
       </c>
@@ -3875,7 +3875,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="42" spans="2:5" ht="35.15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B42" s="7" t="s">
         <v>270</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="43" spans="2:5" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B43" s="7" t="s">
         <v>270</v>
       </c>
@@ -3903,7 +3903,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="44" spans="2:5" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B44" s="7" t="s">
         <v>270</v>
       </c>
@@ -3917,7 +3917,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="45" spans="2:5" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B45" s="7" t="s">
         <v>270</v>
       </c>
@@ -3931,7 +3931,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="46" spans="2:5" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B46" s="7" t="s">
         <v>270</v>
       </c>
@@ -3945,7 +3945,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="47" spans="2:5" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B47" s="7" t="s">
         <v>270</v>
       </c>
@@ -3959,7 +3959,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="48" spans="2:5" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B48" s="7" t="s">
         <v>270</v>
       </c>
@@ -3973,7 +3973,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="49" spans="2:5" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B49" s="7" t="s">
         <v>270</v>
       </c>
@@ -3987,7 +3987,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="50" spans="2:5" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B50" s="7" t="s">
         <v>270</v>
       </c>
@@ -4001,7 +4001,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="51" spans="2:5" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B51" s="7" t="s">
         <v>270</v>
       </c>
@@ -4015,7 +4015,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="2:5" ht="18" x14ac:dyDescent="0.3">
       <c r="B53" s="7" t="s">
         <v>271</v>
       </c>
@@ -4023,7 +4023,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="2:5" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B54" s="7" t="s">
         <v>270</v>
       </c>
@@ -4037,7 +4037,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="55" spans="2:5" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B55" s="7" t="s">
         <v>270</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="56" spans="2:5" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B56" s="7" t="s">
         <v>270</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="57" spans="2:5" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B57" s="7" t="s">
         <v>270</v>
       </c>
@@ -4079,7 +4079,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="58" spans="2:5" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B58" s="7" t="s">
         <v>270</v>
       </c>
@@ -4093,7 +4093,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="59" spans="2:5" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B59" s="7" t="s">
         <v>270</v>
       </c>
@@ -4107,7 +4107,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="60" spans="2:5" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B60" s="7" t="s">
         <v>270</v>
       </c>
@@ -4121,7 +4121,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="61" spans="2:5" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B61" s="7" t="s">
         <v>270</v>
       </c>
@@ -4135,7 +4135,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="62" spans="2:5" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B62" s="7" t="s">
         <v>270</v>
       </c>
@@ -4149,7 +4149,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="63" spans="2:5" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B63" s="7" t="s">
         <v>270</v>
       </c>
@@ -4163,7 +4163,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="64" spans="2:5" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B64" s="7" t="s">
         <v>270</v>
       </c>
@@ -4177,7 +4177,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="65" spans="2:5" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B65" s="7" t="s">
         <v>270</v>
       </c>
@@ -4191,7 +4191,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="66" spans="2:5" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B66" s="7" t="s">
         <v>270</v>
       </c>
@@ -4205,7 +4205,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="67" spans="2:5" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B67" s="7" t="s">
         <v>270</v>
       </c>
@@ -4219,7 +4219,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="68" spans="2:5" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B68" s="7" t="s">
         <v>270</v>
       </c>
@@ -4233,7 +4233,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="69" spans="2:5" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B69" s="7" t="s">
         <v>270</v>
       </c>
@@ -4247,7 +4247,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="70" spans="2:5" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B70" s="7" t="s">
         <v>270</v>
       </c>
@@ -4261,7 +4261,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="71" spans="2:5" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B71" s="7" t="s">
         <v>270</v>
       </c>
@@ -4275,7 +4275,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="72" spans="2:5" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B72" s="7" t="s">
         <v>270</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="73" spans="2:5" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B73" s="7" t="s">
         <v>270</v>
       </c>
@@ -4303,7 +4303,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="74" spans="2:5" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B74" s="7" t="s">
         <v>270</v>
       </c>
@@ -4317,7 +4317,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="75" spans="2:5" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B75" s="7" t="s">
         <v>270</v>
       </c>
@@ -4331,7 +4331,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="2:5" ht="18" x14ac:dyDescent="0.3">
       <c r="B77" s="7" t="s">
         <v>271</v>
       </c>
@@ -4339,7 +4339,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="78" spans="2:5" ht="123" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="2:5" ht="115.5" x14ac:dyDescent="0.3">
       <c r="B78" s="7" t="s">
         <v>270</v>
       </c>
@@ -4353,7 +4353,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="79" spans="2:5" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B79" s="7" t="s">
         <v>270</v>
       </c>
@@ -4367,7 +4367,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="80" spans="2:5" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B80" s="7" t="s">
         <v>270</v>
       </c>
@@ -4381,7 +4381,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="81" spans="2:5" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B81" s="7" t="s">
         <v>270</v>
       </c>
@@ -4395,7 +4395,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="82" spans="2:5" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B82" s="7" t="s">
         <v>270</v>
       </c>
@@ -4409,7 +4409,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="83" spans="2:5" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B83" s="7" t="s">
         <v>270</v>
       </c>
@@ -4423,7 +4423,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="84" spans="2:5" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B84" s="7" t="s">
         <v>270</v>
       </c>
@@ -4437,7 +4437,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="85" spans="2:5" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B85" s="7" t="s">
         <v>270</v>
       </c>
@@ -4451,7 +4451,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="86" spans="2:5" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B86" s="7" t="s">
         <v>270</v>
       </c>
@@ -4465,7 +4465,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="87" spans="2:5" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B87" s="7" t="s">
         <v>270</v>
       </c>
@@ -4479,7 +4479,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="88" spans="2:5" ht="35.15" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="2:5" ht="33" x14ac:dyDescent="0.3">
       <c r="B88" s="7" t="s">
         <v>270</v>
       </c>
@@ -4493,7 +4493,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="89" spans="2:5" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B89" s="7" t="s">
         <v>270</v>
       </c>
@@ -4507,7 +4507,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="90" spans="2:5" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B90" s="7" t="s">
         <v>270</v>
       </c>
@@ -4521,7 +4521,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="91" spans="2:5" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B91" s="7" t="s">
         <v>270</v>
       </c>
@@ -4535,7 +4535,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="92" spans="2:5" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B92" s="7" t="s">
         <v>270</v>
       </c>
@@ -4549,7 +4549,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="93" spans="2:5" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B93" s="7" t="s">
         <v>270</v>
       </c>
@@ -4563,7 +4563,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="94" spans="2:5" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B94" s="7" t="s">
         <v>270</v>
       </c>
@@ -4577,7 +4577,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="95" spans="2:5" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B95" s="7" t="s">
         <v>270</v>
       </c>
@@ -4591,7 +4591,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="96" spans="2:5" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B96" s="7" t="s">
         <v>270</v>
       </c>
@@ -4605,7 +4605,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="97" spans="2:5" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B97" s="7" t="s">
         <v>270</v>
       </c>
@@ -4619,7 +4619,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="98" spans="2:5" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B98" s="7" t="s">
         <v>270</v>
       </c>
@@ -4633,7 +4633,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="99" spans="2:5" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B99" s="7" t="s">
         <v>270</v>
       </c>
@@ -4647,12 +4647,12 @@
         <v>342</v>
       </c>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B100" s="7" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="2:5" ht="18" x14ac:dyDescent="0.3">
       <c r="B101" s="7" t="s">
         <v>271</v>
       </c>
@@ -4660,7 +4660,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="102" spans="2:5" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B102" s="7" t="s">
         <v>270</v>
       </c>
@@ -4674,7 +4674,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="103" spans="2:5" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B103" s="7" t="s">
         <v>270</v>
       </c>
@@ -4688,7 +4688,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="104" spans="2:5" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B104" s="7" t="s">
         <v>270</v>
       </c>
@@ -4702,7 +4702,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="105" spans="2:5" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B105" s="7" t="s">
         <v>270</v>
       </c>
@@ -4716,7 +4716,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="106" spans="2:5" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B106" s="7" t="s">
         <v>270</v>
       </c>
@@ -4730,7 +4730,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="107" spans="2:5" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B107" s="7" t="s">
         <v>270</v>
       </c>
@@ -4744,7 +4744,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="108" spans="2:5" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B108" s="7" t="s">
         <v>270</v>
       </c>
@@ -4758,7 +4758,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="109" spans="2:5" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B109" s="7" t="s">
         <v>270</v>
       </c>
@@ -4772,7 +4772,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="110" spans="2:5" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B110" s="7" t="s">
         <v>270</v>
       </c>
@@ -4786,7 +4786,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="111" spans="2:5" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B111" s="7" t="s">
         <v>270</v>
       </c>
@@ -4800,7 +4800,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="112" spans="2:5" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B112" s="7" t="s">
         <v>270</v>
       </c>
@@ -4814,7 +4814,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="113" spans="2:5" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B113" s="7" t="s">
         <v>270</v>
       </c>
@@ -4828,7 +4828,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="114" spans="2:5" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B114" s="7" t="s">
         <v>270</v>
       </c>
@@ -4842,7 +4842,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="115" spans="2:5" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B115" s="7" t="s">
         <v>270</v>
       </c>
@@ -4856,7 +4856,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="116" spans="2:5" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B116" s="7" t="s">
         <v>270</v>
       </c>
@@ -4870,7 +4870,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="117" spans="2:5" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B117" s="7" t="s">
         <v>270</v>
       </c>
@@ -4884,7 +4884,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="118" spans="2:5" ht="70.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="2:5" ht="66" x14ac:dyDescent="0.3">
       <c r="B118" s="7" t="s">
         <v>270</v>
       </c>
@@ -4898,7 +4898,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="119" spans="2:5" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B119" s="7" t="s">
         <v>270</v>
       </c>
@@ -4912,7 +4912,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="120" spans="2:5" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B120" s="7" t="s">
         <v>270</v>
       </c>
@@ -4926,7 +4926,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="121" spans="2:5" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B121" s="7" t="s">
         <v>270</v>
       </c>
@@ -4940,7 +4940,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="122" spans="2:5" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B122" s="7" t="s">
         <v>270</v>
       </c>
@@ -4954,7 +4954,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="123" spans="2:5" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B123" s="7" t="s">
         <v>270</v>
       </c>
@@ -4968,7 +4968,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="124" spans="2:5" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B124" s="7" t="s">
         <v>270</v>
       </c>
@@ -4982,7 +4982,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="125" spans="2:5" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B125" s="7" t="s">
         <v>270</v>
       </c>
@@ -4996,12 +4996,12 @@
         <v>365</v>
       </c>
     </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B126" s="7" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="2:5" ht="18" x14ac:dyDescent="0.3">
       <c r="B127" s="7" t="s">
         <v>271</v>
       </c>
@@ -5009,7 +5009,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="128" spans="2:5" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B128" s="7" t="s">
         <v>270</v>
       </c>
@@ -5023,7 +5023,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="129" spans="2:5" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B129" s="7" t="s">
         <v>270</v>
       </c>
@@ -5037,7 +5037,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="130" spans="2:5" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B130" s="7" t="s">
         <v>270</v>
       </c>
@@ -5051,7 +5051,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="131" spans="2:5" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B131" s="7" t="s">
         <v>270</v>
       </c>
@@ -5065,7 +5065,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="132" spans="2:5" ht="35.15" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="2:5" ht="33" x14ac:dyDescent="0.3">
       <c r="B132" s="7" t="s">
         <v>270</v>
       </c>
@@ -5079,7 +5079,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="133" spans="2:5" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B133" s="7" t="s">
         <v>270</v>
       </c>
@@ -5093,7 +5093,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="134" spans="2:5" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B134" s="7" t="s">
         <v>270</v>
       </c>
@@ -5107,7 +5107,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="135" spans="2:5" ht="35.15" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="2:5" ht="33" x14ac:dyDescent="0.3">
       <c r="B135" s="7" t="s">
         <v>270</v>
       </c>
@@ -5121,7 +5121,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="136" spans="2:5" ht="35.15" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="2:5" ht="33" x14ac:dyDescent="0.3">
       <c r="B136" s="7" t="s">
         <v>270</v>
       </c>
@@ -5280,27 +5280,27 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="97.640625" customWidth="1"/>
+    <col min="3" max="3" width="97.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:3" ht="22.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="3:3" ht="23.25" x14ac:dyDescent="0.3">
       <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="3:3" ht="90" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="3:3" ht="112.5" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C6" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>24</v>
       </c>
